--- a/Final-Project/srtable.xlsx
+++ b/Final-Project/srtable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="21840" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>State</t>
   </si>
@@ -328,6 +328,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,8 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent5" xfId="1" builtinId="47"/>
@@ -647,7 +647,7 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,36 +680,36 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="8" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="12"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="9"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -984,7 +984,9 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
